--- a/lookupData/objectives-blank.xlsx
+++ b/lookupData/objectives-blank.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\OneDrive\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90F2F9-EAA7-4D0E-91C3-5012272CF844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A87E1C-3258-4220-98E7-1F9DDB7741AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="1" r:id="rId1"/>
     <sheet name="Advancements" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="235">
   <si>
     <t>Acquire Hardware</t>
   </si>
@@ -691,6 +691,51 @@
   <si>
     <t>[Your Text Here]
 In-game description</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>The_End</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Adeventure2</t>
+  </si>
+  <si>
+    <t>Adventure1</t>
+  </si>
+  <si>
+    <t>Husbandry1</t>
+  </si>
+  <si>
+    <t>Nether1</t>
+  </si>
+  <si>
+    <t>The_End1</t>
+  </si>
+  <si>
+    <t>story1</t>
+  </si>
+  <si>
+    <t>Story1</t>
+  </si>
+  <si>
+    <t>Story2</t>
   </si>
 </sst>
 </file>
@@ -747,9 +792,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -757,6 +802,34 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -781,16 +854,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -806,34 +870,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:E126" totalsRowShown="0" headerRowDxfId="3" dataDxfId="13">
-  <autoFilter ref="A1:E126" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:H126" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H126" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H126">
     <sortCondition ref="D1:D126"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="[Your Text Here]_x000a_Achievement" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="[Your Text Here]_x000a_In-game description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BF981727-2D75-4FC0-8F2E-C94697E4328D}" name="Achievement (English Title)" dataDxfId="4"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="[Your Text Here]_x000a_Achievement" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="[Your Text Here]_x000a_In-game description" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B8223452-40CA-47AB-83E6-A132352D555A}" name="Category" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5665DDF6-353B-49EB-ACED-3CBA3910E069}" name="Object" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A5A9FA4D-BA1C-4E4C-8A10-B31370ECBC51}" name="Index" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{BF981727-2D75-4FC0-8F2E-C94697E4328D}" name="Achievement (English Title)" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:E111" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9">
-  <autoFilter ref="A1:E111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:H111" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:H111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H111">
     <sortCondition ref="D1:D111"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="[Your Text Here]_x000a_Advancement" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="[Your Text Here]_x000a_In-game description (Your Language)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9D241DF6-3D97-4C3D-A6DB-01D0CC9D2521}" name="Advancement (English Title)" dataDxfId="1"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="[Your Text Here]_x000a_Advancement" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="[Your Text Here]_x000a_In-game description (Your Language)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{EA136DD9-9116-4D59-9739-CBD430B19E7B}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DDDB15C5-1D57-4587-B181-1261CB2FD5FE}" name="Object" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{CC51CD34-37D9-4EBF-A094-39385E5E01BE}" name="Index" dataDxfId="2">
+      <calculatedColumnFormula>1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9D241DF6-3D97-4C3D-A6DB-01D0CC9D2521}" name="Advancement (English Title)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1102,22 +1174,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D126" sqref="D1:H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.59765625" style="1"/>
-    <col min="4" max="4" width="5.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.59765625" style="3"/>
-    <col min="6" max="16384" width="50.59765625" style="1"/>
+    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.5703125" style="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="50.5703125" style="3"/>
+    <col min="9" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>218</v>
       </c>
@@ -1131,1131 +1204,2265 @@
         <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="3">
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="3">
         <v>25</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="3">
         <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="3">
         <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="3">
         <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="3">
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="3">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="3">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="3">
         <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="D33" s="3">
         <v>32</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="D34" s="3">
         <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="3">
+        <v>11</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" s="3">
         <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="3">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="D36" s="3">
         <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="3">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="D37" s="3">
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="3">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" s="3">
         <v>37</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="D39" s="3">
         <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="3">
+        <v>6</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="D40" s="3">
         <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="D41" s="3">
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="3">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="D42" s="3">
         <v>41</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="3">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="D43" s="3">
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="D44" s="3">
         <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="3">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="D45" s="3">
         <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="3">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="D46" s="3">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="D47" s="3">
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="D48" s="3">
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="3">
+        <v>18</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="D49" s="3">
         <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="3">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="D50" s="3">
         <v>49</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="D51" s="3">
         <v>50</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" s="3">
+        <v>20</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="D52" s="3">
         <v>51</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="D53" s="3">
         <v>52</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="3">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="D54" s="3">
         <v>53</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="D55" s="3">
         <v>54</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" s="3">
+        <v>21</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="D56" s="3">
         <v>55</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" s="3">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="3">
         <v>56</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="3">
+        <v>13</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="D58" s="3">
         <v>57</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G58" s="3">
+        <v>22</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="D59" s="3">
         <v>58</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="3">
+        <v>23</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="D60" s="3">
         <v>59</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G60" s="3">
+        <v>24</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="D61" s="3">
         <v>60</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="3">
+        <v>14</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="D62" s="3">
         <v>61</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="3">
+        <v>24</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="D63" s="3">
         <v>62</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G63" s="3">
+        <v>11</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="D64" s="3">
         <v>63</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="3">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="D65" s="3">
         <v>64</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="3">
+        <v>15</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="D66" s="3">
         <v>65</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G66" s="3">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="D67" s="3">
         <v>66</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G67" s="3">
+        <v>16</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="D68" s="3">
         <v>67</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="3">
+        <v>25</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="D69" s="3">
         <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69" s="3">
+        <v>26</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="D70" s="3">
         <v>69</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="D71" s="3">
         <v>70</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="3">
+        <v>11</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="D72" s="3">
         <v>71</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="D73" s="3">
         <v>72</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" s="3">
+        <v>5</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="D74" s="3">
         <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="D75" s="3">
         <v>74</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G75" s="3">
+        <v>17</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="D76" s="3">
         <v>75</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G76" s="3">
+        <v>7</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="D77" s="3">
         <v>76</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G77" s="3">
+        <v>18</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="D78" s="3">
         <v>77</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G78" s="3">
+        <v>19</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="D79" s="3">
         <v>78</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G79" s="3">
+        <v>20</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="D80" s="3">
         <v>79</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G80" s="3">
+        <v>14</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="D81" s="3">
         <v>80</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="3">
+        <v>21</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="D82" s="3">
         <v>81</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G82" s="3">
+        <v>22</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="D83" s="3">
         <v>82</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G83" s="3">
+        <v>23</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="D84" s="3">
         <v>83</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G84" s="3">
+        <v>24</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="D85" s="3">
         <v>84</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G85" s="3">
+        <v>15</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="D86" s="3">
         <v>85</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G86" s="3">
+        <v>25</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="D87" s="3">
         <v>86</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="3">
+        <v>25</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="D88" s="3">
         <v>87</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G88" s="3">
+        <v>27</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="D89" s="3">
         <v>88</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G89" s="3">
+        <v>26</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="D90" s="3">
         <v>89</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G90" s="3">
+        <v>28</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="D91" s="3">
         <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G91" s="3">
+        <v>27</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="D92" s="3">
         <v>91</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G92" s="3">
+        <v>29</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="D93" s="3">
         <v>92</v>
       </c>
       <c r="E93" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G93" s="3">
+        <v>30</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="D94" s="3">
         <v>93</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G94" s="3">
+        <v>15</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="D95" s="3">
         <v>94</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="3">
+        <v>16</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="D96" s="3">
         <v>95</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" s="3">
+        <v>31</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="D97" s="3">
         <v>96</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G97" s="3">
+        <v>17</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="D98" s="3">
         <v>97</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G98" s="3">
+        <v>28</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="D99" s="3">
         <v>98</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G99" s="3">
+        <v>32</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="D100" s="3">
         <v>99</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="D101" s="3">
         <v>100</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G101" s="3">
+        <v>29</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="D102" s="3">
         <v>101</v>
       </c>
       <c r="E102" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="D103" s="3">
         <v>102</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G103" s="3">
+        <v>30</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="D104" s="3">
         <v>103</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" s="3">
+        <v>3</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="D105" s="3">
         <v>104</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105" s="3">
+        <v>4</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="D106" s="3">
         <v>105</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" s="3">
+        <v>18</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="D107" s="3">
         <v>106</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="3">
+        <v>19</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="D108" s="3">
         <v>107</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="D109" s="3">
         <v>108</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G109" s="3">
+        <v>6</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="D110" s="3">
         <v>109</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G110" s="3">
+        <v>6</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="D111" s="3">
         <v>110</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G111" s="3">
+        <v>7</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="D112" s="3">
         <v>111</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G112" s="3">
+        <v>8</v>
+      </c>
+      <c r="H112" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="D113" s="3">
         <v>112</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G113" s="3">
+        <v>31</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="D114" s="3">
         <v>113</v>
       </c>
       <c r="E114" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114" s="3">
+        <v>7</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="D115" s="3">
         <v>114</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="3">
+        <v>20</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="D116" s="3">
         <v>115</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" s="3">
+        <v>8</v>
+      </c>
+      <c r="H116" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="D117" s="3">
         <v>116</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G117" s="3">
+        <v>9</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="D118" s="3">
         <v>117</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G118" s="3">
+        <v>10</v>
+      </c>
+      <c r="H118" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="D119" s="3">
         <v>118</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G119" s="3">
+        <v>9</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="D120" s="3">
         <v>119</v>
       </c>
       <c r="E120" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G120" s="3">
+        <v>11</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="D121" s="3">
         <v>120</v>
       </c>
       <c r="E121" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G121" s="3">
+        <v>21</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="D122" s="3">
         <v>121</v>
       </c>
       <c r="E122" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G122" s="3">
+        <v>10</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="D123" s="3">
         <v>122</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" s="3">
+        <v>12</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="D124" s="3">
         <v>123</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G124" s="3">
+        <v>13</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="D125" s="3">
         <v>124</v>
       </c>
       <c r="E125" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G125" s="3">
+        <v>14</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="D126" s="3">
         <v>125</v>
       </c>
       <c r="E126" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" s="3">
+        <v>15</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2270,22 +3477,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D2FCF-03EA-4C2E-BCB7-15D3321DB186}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.59765625" style="1"/>
-    <col min="4" max="4" width="5.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.59765625" style="3"/>
-    <col min="6" max="16384" width="50.59765625" style="1"/>
+    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.5703125" style="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="50.5703125" style="3"/>
+    <col min="9" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>214</v>
       </c>
@@ -2299,154 +3507,307 @@
         <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="3">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="3">
         <v>17</v>
@@ -2454,296 +3815,595 @@
       <c r="E18" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="3">
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="3">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="3">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="3">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="3">
         <v>25</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="3">
         <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="3">
         <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="3">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="3">
         <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="3">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="3">
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="3">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="3">
+        <v>14</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="3">
         <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="D33" s="3">
         <v>32</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="3">
+        <v>16</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="D34" s="3">
         <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="3">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" s="3">
         <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="3">
+        <v>18</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="D36" s="3">
         <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="3">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="D37" s="3">
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="3">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" s="3">
         <v>37</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="3">
+        <v>21</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="D39" s="3">
         <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="3">
+        <v>22</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="D40" s="3">
         <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="3">
+        <v>23</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="D41" s="3">
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" s="3">
+        <v>24</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="D42" s="3">
         <v>41</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="D43" s="3">
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="D44" s="3">
         <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="D45" s="3">
         <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="D46" s="3">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="D47" s="3">
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="D48" s="3">
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="D49" s="3">
         <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="D50" s="3">
         <v>49</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="D51" s="3">
         <v>50</v>
@@ -2751,314 +4411,630 @@
       <c r="E51" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="D52" s="3">
         <v>51</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="D53" s="3">
         <v>52</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" s="3">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="D54" s="3">
         <v>53</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="D55" s="3">
         <v>54</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G55" s="3">
+        <v>5</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="D56" s="3">
         <v>55</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G56" s="3">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="D57" s="3">
         <v>56</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G57" s="3">
+        <v>7</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="D58" s="3">
         <v>57</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="D59" s="3">
         <v>58</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="D60" s="3">
         <v>59</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="D61" s="3">
         <v>60</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="3">
+        <v>11</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="D62" s="3">
         <v>61</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="3">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="D63" s="3">
         <v>62</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="3">
+        <v>13</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="D64" s="3">
         <v>63</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="3">
+        <v>14</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="D65" s="3">
         <v>64</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" s="3">
+        <v>15</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="D66" s="3">
         <v>65</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66" s="3">
+        <v>16</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="D67" s="3">
         <v>66</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G67" s="3">
+        <v>17</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="D68" s="3">
         <v>67</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G68" s="3">
+        <v>18</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="D69" s="3">
         <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="3">
+        <v>19</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="D70" s="3">
         <v>69</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="3">
+        <v>20</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="D71" s="3">
         <v>70</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G71" s="3">
+        <v>21</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="D72" s="3">
         <v>71</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" s="3">
+        <v>22</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="D73" s="3">
         <v>72</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G73" s="3">
+        <v>23</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="D74" s="3">
         <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" s="3">
+        <v>24</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="D75" s="3">
         <v>74</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G75" s="3">
+        <v>25</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="D76" s="3">
         <v>75</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G76" s="3">
+        <v>26</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="D77" s="3">
         <v>76</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G77" s="3">
+        <v>27</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="D78" s="3">
         <v>77</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G78" s="3">
+        <v>28</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="D79" s="3">
         <v>78</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G79" s="3">
+        <v>29</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="D80" s="3">
         <v>79</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G80" s="3">
+        <v>30</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="D81" s="3">
         <v>80</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="3">
+        <v>31</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="D82" s="3">
         <v>81</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G82" s="3">
+        <v>32</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="D83" s="3">
         <v>82</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="D84" s="3">
         <v>83</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="D85" s="3">
         <v>84</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="D86" s="3">
         <v>85</v>
@@ -3066,229 +5042,463 @@
       <c r="E86" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="D87" s="3">
         <v>86</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="D88" s="3">
         <v>87</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G88" s="3">
+        <v>3</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="D89" s="3">
         <v>88</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="3">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="D90" s="3">
         <v>89</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="D91" s="3">
         <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" s="3">
+        <v>6</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="D92" s="3">
         <v>91</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="3">
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="D93" s="3">
         <v>92</v>
       </c>
       <c r="E93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G93" s="3">
+        <v>8</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="D94" s="3">
         <v>93</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G94" s="3">
+        <v>9</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="D95" s="3">
         <v>94</v>
       </c>
       <c r="E95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="3">
+        <v>10</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="D96" s="3">
         <v>95</v>
       </c>
       <c r="E96" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G96" s="3">
+        <v>11</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="D97" s="3">
         <v>96</v>
       </c>
       <c r="E97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G97" s="3">
+        <v>12</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="D98" s="3">
         <v>97</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G98" s="3">
+        <v>13</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="D99" s="3">
         <v>98</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G99" s="3">
+        <v>14</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="D100" s="3">
         <v>99</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100" s="3">
+        <v>15</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="D101" s="3">
         <v>100</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G101" s="3">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="D102" s="3">
         <v>101</v>
       </c>
       <c r="E102" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G102" s="3">
+        <v>17</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="D103" s="3">
         <v>102</v>
       </c>
       <c r="E103" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="3">
+        <v>18</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="D104" s="3">
         <v>103</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G104" s="3">
+        <v>19</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="D105" s="3">
         <v>104</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G105" s="3">
+        <v>20</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="D106" s="3">
         <v>105</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" s="3">
+        <v>21</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="D107" s="3">
         <v>106</v>
       </c>
       <c r="E107" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="3">
+        <v>22</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="D108" s="3">
         <v>107</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G108" s="3">
+        <v>23</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="D109" s="3">
         <v>108</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G109" s="3">
+        <v>24</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="D110" s="3">
         <v>109</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G110" s="3">
+        <v>25</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="D111" s="3">
         <v>110</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G111" s="3">
+        <v>26</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>105</v>
       </c>
     </row>

--- a/lookupData/objectives-blank.xlsx
+++ b/lookupData/objectives-blank.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\OneDrive\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A87E1C-3258-4220-98E7-1F9DDB7741AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414E65CC-9DE7-4607-8CD7-FBDBA3E5CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="1" r:id="rId1"/>
     <sheet name="Advancements" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="234">
   <si>
     <t>Acquire Hardware</t>
   </si>
@@ -691,9 +691,6 @@
   <si>
     <t>[Your Text Here]
 In-game description</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Category</t>
@@ -797,16 +794,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -833,6 +821,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -880,32 +877,30 @@
     <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="[Your Text Here]_x000a_In-game description" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="15"/>
     <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{B8223452-40CA-47AB-83E6-A132352D555A}" name="Category" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5665DDF6-353B-49EB-ACED-3CBA3910E069}" name="Object" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{A5A9FA4D-BA1C-4E4C-8A10-B31370ECBC51}" name="Index" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{BF981727-2D75-4FC0-8F2E-C94697E4328D}" name="Achievement (English Title)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{B8223452-40CA-47AB-83E6-A132352D555A}" name="Category" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{5665DDF6-353B-49EB-ACED-3CBA3910E069}" name="Object" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{A5A9FA4D-BA1C-4E4C-8A10-B31370ECBC51}" name="Index" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{BF981727-2D75-4FC0-8F2E-C94697E4328D}" name="Achievement (English Title)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:H111" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:H111" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H111">
     <sortCondition ref="D1:D111"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="[Your Text Here]_x000a_Advancement" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="[Your Text Here]_x000a_In-game description (Your Language)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{EA136DD9-9116-4D59-9739-CBD430B19E7B}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DDDB15C5-1D57-4587-B181-1261CB2FD5FE}" name="Object" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{CC51CD34-37D9-4EBF-A094-39385E5E01BE}" name="Index" dataDxfId="2">
-      <calculatedColumnFormula>1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{9D241DF6-3D97-4C3D-A6DB-01D0CC9D2521}" name="Advancement (English Title)" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="[Your Text Here]_x000a_Advancement" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="[Your Text Here]_x000a_In-game description (Your Language)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="[Your Text Here]_x000a_Actual requirements (if different)" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EA136DD9-9116-4D59-9739-CBD430B19E7B}" name="Category" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{DDDB15C5-1D57-4587-B181-1261CB2FD5FE}" name="Object" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{CC51CD34-37D9-4EBF-A094-39385E5E01BE}" name="Index" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9D241DF6-3D97-4C3D-A6DB-01D0CC9D2521}" name="Advancement (English Title)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1176,21 +1171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D126" sqref="D1:H126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.5703125" style="1"/>
-    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" style="3"/>
-    <col min="9" max="16384" width="50.5703125" style="1"/>
+    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.59765625" style="1"/>
+    <col min="4" max="4" width="5.59765625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.59765625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="50.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>218</v>
       </c>
@@ -1204,28 +1200,28 @@
         <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1234,16 +1230,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -1252,16 +1248,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -1270,16 +1266,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -1288,16 +1284,16 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -1306,16 +1302,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -1324,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -1333,7 +1329,7 @@
         <v>188</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1342,7 +1338,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -1351,7 +1347,7 @@
         <v>188</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -1360,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -1369,7 +1365,7 @@
         <v>188</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
@@ -1378,16 +1374,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
@@ -1396,7 +1392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -1405,7 +1401,7 @@
         <v>188</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -1414,7 +1410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -1423,7 +1419,7 @@
         <v>162</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1432,16 +1428,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G14" s="3">
         <v>8</v>
@@ -1450,7 +1446,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="D15" s="3">
         <v>14</v>
@@ -1459,7 +1455,7 @@
         <v>162</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1468,7 +1464,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="D16" s="3">
         <v>15</v>
@@ -1477,7 +1473,7 @@
         <v>188</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
@@ -1486,7 +1482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="D17" s="3">
         <v>16</v>
@@ -1495,7 +1491,7 @@
         <v>162</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1504,7 +1500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="D18" s="3">
         <v>17</v>
@@ -1513,7 +1509,7 @@
         <v>162</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
@@ -1522,16 +1518,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="D19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G19" s="3">
         <v>9</v>
@@ -1540,7 +1536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="D20" s="3">
         <v>19</v>
@@ -1549,7 +1545,7 @@
         <v>136</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -1558,7 +1554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="D21" s="3">
         <v>20</v>
@@ -1567,7 +1563,7 @@
         <v>136</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -1576,7 +1572,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="D22" s="3">
         <v>21</v>
@@ -1585,7 +1581,7 @@
         <v>136</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="3">
         <v>3</v>
@@ -1594,7 +1590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="D23" s="3">
         <v>22</v>
@@ -1603,7 +1599,7 @@
         <v>136</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
@@ -1612,16 +1608,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -1630,16 +1626,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -1648,16 +1644,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="D26" s="3">
         <v>25</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G26" s="3">
         <v>10</v>
@@ -1666,7 +1662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="D27" s="3">
         <v>26</v>
@@ -1675,7 +1671,7 @@
         <v>162</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
@@ -1684,7 +1680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="D28" s="3">
         <v>27</v>
@@ -1693,7 +1689,7 @@
         <v>162</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G28" s="3">
         <v>6</v>
@@ -1702,7 +1698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="D29" s="3">
         <v>28</v>
@@ -1711,7 +1707,7 @@
         <v>162</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="3">
         <v>7</v>
@@ -1720,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="D30" s="3">
         <v>29</v>
@@ -1729,7 +1725,7 @@
         <v>136</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="3">
         <v>8</v>
@@ -1738,7 +1734,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="D31" s="3">
         <v>30</v>
@@ -1747,7 +1743,7 @@
         <v>136</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G31" s="3">
         <v>9</v>
@@ -1756,7 +1752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="D32" s="3">
         <v>31</v>
@@ -1765,7 +1761,7 @@
         <v>136</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G32" s="3">
         <v>10</v>
@@ -1774,7 +1770,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="D33" s="3">
         <v>32</v>
@@ -1783,7 +1779,7 @@
         <v>188</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G33" s="3">
         <v>4</v>
@@ -1792,16 +1788,16 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="D34" s="3">
         <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G34" s="3">
         <v>11</v>
@@ -1810,16 +1806,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="D35" s="3">
         <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G35" s="3">
         <v>12</v>
@@ -1828,16 +1824,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="D36" s="3">
         <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G36" s="3">
         <v>13</v>
@@ -1846,16 +1842,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="D37" s="3">
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G37" s="3">
         <v>14</v>
@@ -1864,7 +1860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="D38" s="3">
         <v>37</v>
@@ -1873,7 +1869,7 @@
         <v>188</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G38" s="3">
         <v>5</v>
@@ -1882,7 +1878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="D39" s="3">
         <v>38</v>
@@ -1891,7 +1887,7 @@
         <v>188</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G39" s="3">
         <v>6</v>
@@ -1900,7 +1896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="D40" s="3">
         <v>39</v>
@@ -1909,7 +1905,7 @@
         <v>162</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G40" s="3">
         <v>8</v>
@@ -1918,16 +1914,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="D41" s="3">
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G41" s="3">
         <v>15</v>
@@ -1936,16 +1932,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="D42" s="3">
         <v>41</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G42" s="3">
         <v>16</v>
@@ -1954,16 +1950,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="D43" s="3">
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G43" s="3">
         <v>17</v>
@@ -1972,7 +1968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="D44" s="3">
         <v>43</v>
@@ -1981,7 +1977,7 @@
         <v>162</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G44" s="3">
         <v>9</v>
@@ -1990,7 +1986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="D45" s="3">
         <v>44</v>
@@ -1999,7 +1995,7 @@
         <v>188</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G45" s="3">
         <v>6</v>
@@ -2008,7 +2004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="D46" s="3">
         <v>45</v>
@@ -2017,7 +2013,7 @@
         <v>188</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G46" s="3">
         <v>7</v>
@@ -2026,7 +2022,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="D47" s="3">
         <v>46</v>
@@ -2035,7 +2031,7 @@
         <v>162</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G47" s="3">
         <v>10</v>
@@ -2044,16 +2040,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="D48" s="3">
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G48" s="3">
         <v>18</v>
@@ -2062,16 +2058,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="D49" s="3">
         <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G49" s="3">
         <v>19</v>
@@ -2080,7 +2076,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="D50" s="3">
         <v>49</v>
@@ -2089,7 +2085,7 @@
         <v>188</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50" s="3">
         <v>8</v>
@@ -2098,16 +2094,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="D51" s="3">
         <v>50</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G51" s="3">
         <v>20</v>
@@ -2116,7 +2112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="D52" s="3">
         <v>51</v>
@@ -2125,7 +2121,7 @@
         <v>188</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G52" s="3">
         <v>9</v>
@@ -2134,7 +2130,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="D53" s="3">
         <v>52</v>
@@ -2143,7 +2139,7 @@
         <v>188</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G53" s="3">
         <v>10</v>
@@ -2152,7 +2148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="D54" s="3">
         <v>53</v>
@@ -2161,7 +2157,7 @@
         <v>162</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="3">
         <v>11</v>
@@ -2170,16 +2166,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="D55" s="3">
         <v>54</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G55" s="3">
         <v>21</v>
@@ -2188,7 +2184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="D56" s="3">
         <v>55</v>
@@ -2197,7 +2193,7 @@
         <v>162</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G56" s="3">
         <v>12</v>
@@ -2206,7 +2202,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="D57" s="3">
         <v>56</v>
@@ -2215,7 +2211,7 @@
         <v>162</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G57" s="3">
         <v>13</v>
@@ -2224,16 +2220,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="D58" s="3">
         <v>57</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G58" s="3">
         <v>22</v>
@@ -2242,16 +2238,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="D59" s="3">
         <v>58</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G59" s="3">
         <v>23</v>
@@ -2260,16 +2256,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="D60" s="3">
         <v>59</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G60" s="3">
         <v>24</v>
@@ -2278,7 +2274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="D61" s="3">
         <v>60</v>
@@ -2287,7 +2283,7 @@
         <v>162</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G61" s="3">
         <v>14</v>
@@ -2296,16 +2292,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="D62" s="3">
         <v>61</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G62" s="3">
         <v>24</v>
@@ -2314,7 +2310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="D63" s="3">
         <v>62</v>
@@ -2323,7 +2319,7 @@
         <v>188</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G63" s="3">
         <v>11</v>
@@ -2332,7 +2328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="D64" s="3">
         <v>63</v>
@@ -2341,7 +2337,7 @@
         <v>188</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G64" s="3">
         <v>12</v>
@@ -2350,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="D65" s="3">
         <v>64</v>
@@ -2359,7 +2355,7 @@
         <v>162</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G65" s="3">
         <v>15</v>
@@ -2368,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="D66" s="3">
         <v>65</v>
@@ -2377,7 +2373,7 @@
         <v>188</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G66" s="3">
         <v>13</v>
@@ -2386,7 +2382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="D67" s="3">
         <v>66</v>
@@ -2395,7 +2391,7 @@
         <v>162</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G67" s="3">
         <v>16</v>
@@ -2404,16 +2400,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="D68" s="3">
         <v>67</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G68" s="3">
         <v>25</v>
@@ -2422,16 +2418,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="D69" s="3">
         <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G69" s="3">
         <v>26</v>
@@ -2440,16 +2436,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="D70" s="3">
         <v>69</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G70" s="3">
         <v>3</v>
@@ -2458,7 +2454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="D71" s="3">
         <v>70</v>
@@ -2467,7 +2463,7 @@
         <v>136</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G71" s="3">
         <v>11</v>
@@ -2476,16 +2472,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="D72" s="3">
         <v>71</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G72" s="3">
         <v>4</v>
@@ -2494,16 +2490,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="D73" s="3">
         <v>72</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G73" s="3">
         <v>5</v>
@@ -2512,16 +2508,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="D74" s="3">
         <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G74" s="3">
         <v>6</v>
@@ -2530,7 +2526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="D75" s="3">
         <v>74</v>
@@ -2539,7 +2535,7 @@
         <v>162</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G75" s="3">
         <v>17</v>
@@ -2548,16 +2544,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="D76" s="3">
         <v>75</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G76" s="3">
         <v>7</v>
@@ -2566,7 +2562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="D77" s="3">
         <v>76</v>
@@ -2575,7 +2571,7 @@
         <v>162</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G77" s="3">
         <v>18</v>
@@ -2584,7 +2580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="D78" s="3">
         <v>77</v>
@@ -2593,7 +2589,7 @@
         <v>162</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78" s="3">
         <v>19</v>
@@ -2602,7 +2598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="D79" s="3">
         <v>78</v>
@@ -2611,7 +2607,7 @@
         <v>162</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G79" s="3">
         <v>20</v>
@@ -2620,7 +2616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="D80" s="3">
         <v>79</v>
@@ -2629,7 +2625,7 @@
         <v>188</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G80" s="3">
         <v>14</v>
@@ -2638,7 +2634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="D81" s="3">
         <v>80</v>
@@ -2647,7 +2643,7 @@
         <v>162</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G81" s="3">
         <v>21</v>
@@ -2656,7 +2652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="D82" s="3">
         <v>81</v>
@@ -2665,7 +2661,7 @@
         <v>162</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G82" s="3">
         <v>22</v>
@@ -2674,7 +2670,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="D83" s="3">
         <v>82</v>
@@ -2683,7 +2679,7 @@
         <v>162</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G83" s="3">
         <v>23</v>
@@ -2692,7 +2688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="D84" s="3">
         <v>83</v>
@@ -2701,7 +2697,7 @@
         <v>162</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G84" s="3">
         <v>24</v>
@@ -2710,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="D85" s="3">
         <v>84</v>
@@ -2719,7 +2715,7 @@
         <v>188</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G85" s="3">
         <v>15</v>
@@ -2728,7 +2724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="D86" s="3">
         <v>85</v>
@@ -2737,7 +2733,7 @@
         <v>162</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G86" s="3">
         <v>25</v>
@@ -2746,7 +2742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="D87" s="3">
         <v>86</v>
@@ -2755,7 +2751,7 @@
         <v>162</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G87" s="3">
         <v>25</v>
@@ -2764,16 +2760,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="D88" s="3">
         <v>87</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G88" s="3">
         <v>27</v>
@@ -2782,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="D89" s="3">
         <v>88</v>
@@ -2791,7 +2787,7 @@
         <v>162</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G89" s="3">
         <v>26</v>
@@ -2800,16 +2796,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="D90" s="3">
         <v>89</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G90" s="3">
         <v>28</v>
@@ -2818,7 +2814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="D91" s="3">
         <v>90</v>
@@ -2827,7 +2823,7 @@
         <v>162</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G91" s="3">
         <v>27</v>
@@ -2836,16 +2832,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="D92" s="3">
         <v>91</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G92" s="3">
         <v>29</v>
@@ -2854,16 +2850,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="D93" s="3">
         <v>92</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G93" s="3">
         <v>30</v>
@@ -2872,7 +2868,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="D94" s="3">
         <v>93</v>
@@ -2881,7 +2877,7 @@
         <v>188</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G94" s="3">
         <v>15</v>
@@ -2890,7 +2886,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="D95" s="3">
         <v>94</v>
@@ -2899,7 +2895,7 @@
         <v>188</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G95" s="3">
         <v>16</v>
@@ -2908,16 +2904,16 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="D96" s="3">
         <v>95</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G96" s="3">
         <v>31</v>
@@ -2926,7 +2922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="D97" s="3">
         <v>96</v>
@@ -2935,7 +2931,7 @@
         <v>188</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G97" s="3">
         <v>17</v>
@@ -2944,7 +2940,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="D98" s="3">
         <v>97</v>
@@ -2953,7 +2949,7 @@
         <v>162</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G98" s="3">
         <v>28</v>
@@ -2962,16 +2958,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="D99" s="3">
         <v>98</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G99" s="3">
         <v>32</v>
@@ -2980,16 +2976,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="D100" s="3">
         <v>99</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -2998,7 +2994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="D101" s="3">
         <v>100</v>
@@ -3007,7 +3003,7 @@
         <v>162</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G101" s="3">
         <v>29</v>
@@ -3016,16 +3012,16 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="D102" s="3">
         <v>101</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G102" s="3">
         <v>2</v>
@@ -3034,7 +3030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="D103" s="3">
         <v>102</v>
@@ -3043,7 +3039,7 @@
         <v>162</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G103" s="3">
         <v>30</v>
@@ -3052,16 +3048,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="D104" s="3">
         <v>103</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G104" s="3">
         <v>3</v>
@@ -3070,16 +3066,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="D105" s="3">
         <v>104</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G105" s="3">
         <v>4</v>
@@ -3088,7 +3084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="D106" s="3">
         <v>105</v>
@@ -3097,7 +3093,7 @@
         <v>188</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G106" s="3">
         <v>18</v>
@@ -3106,7 +3102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="D107" s="3">
         <v>106</v>
@@ -3115,7 +3111,7 @@
         <v>188</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G107" s="3">
         <v>19</v>
@@ -3124,16 +3120,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="D108" s="3">
         <v>107</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G108" s="3">
         <v>5</v>
@@ -3142,16 +3138,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="D109" s="3">
         <v>108</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G109" s="3">
         <v>6</v>
@@ -3160,7 +3156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="D110" s="3">
         <v>109</v>
@@ -3169,7 +3165,7 @@
         <v>136</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G110" s="3">
         <v>6</v>
@@ -3178,7 +3174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="D111" s="3">
         <v>110</v>
@@ -3187,7 +3183,7 @@
         <v>136</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G111" s="3">
         <v>7</v>
@@ -3196,7 +3192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="D112" s="3">
         <v>111</v>
@@ -3205,7 +3201,7 @@
         <v>136</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G112" s="3">
         <v>8</v>
@@ -3214,7 +3210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="D113" s="3">
         <v>112</v>
@@ -3223,7 +3219,7 @@
         <v>162</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G113" s="3">
         <v>31</v>
@@ -3232,16 +3228,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="D114" s="3">
         <v>113</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G114" s="3">
         <v>7</v>
@@ -3250,7 +3246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="D115" s="3">
         <v>114</v>
@@ -3259,7 +3255,7 @@
         <v>188</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G115" s="3">
         <v>20</v>
@@ -3268,16 +3264,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="1"/>
       <c r="D116" s="3">
         <v>115</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G116" s="3">
         <v>8</v>
@@ -3286,16 +3282,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="1"/>
       <c r="D117" s="3">
         <v>116</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G117" s="3">
         <v>9</v>
@@ -3304,16 +3300,16 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="1"/>
       <c r="D118" s="3">
         <v>117</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G118" s="3">
         <v>10</v>
@@ -3322,7 +3318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
       <c r="D119" s="3">
         <v>118</v>
@@ -3331,7 +3327,7 @@
         <v>136</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G119" s="3">
         <v>9</v>
@@ -3340,16 +3336,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="D120" s="3">
         <v>119</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G120" s="3">
         <v>11</v>
@@ -3358,7 +3354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="D121" s="3">
         <v>120</v>
@@ -3367,7 +3363,7 @@
         <v>188</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G121" s="3">
         <v>21</v>
@@ -3376,7 +3372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="D122" s="3">
         <v>121</v>
@@ -3385,7 +3381,7 @@
         <v>136</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G122" s="3">
         <v>10</v>
@@ -3394,16 +3390,16 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="D123" s="3">
         <v>122</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G123" s="3">
         <v>12</v>
@@ -3412,16 +3408,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="D124" s="3">
         <v>123</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G124" s="3">
         <v>13</v>
@@ -3430,16 +3426,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="D125" s="3">
         <v>124</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G125" s="3">
         <v>14</v>
@@ -3448,16 +3444,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="D126" s="3">
         <v>125</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G126" s="3">
         <v>15</v>
@@ -3479,21 +3475,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D2FCF-03EA-4C2E-BCB7-15D3321DB186}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.5703125" style="1"/>
-    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" style="3"/>
-    <col min="9" max="16384" width="50.5703125" style="1"/>
+    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.59765625" style="1"/>
+    <col min="4" max="4" width="5.59765625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="15.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.59765625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="50.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>214</v>
       </c>
@@ -3510,25 +3507,25 @@
         <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -3537,16 +3534,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -3555,16 +3552,16 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -3573,16 +3570,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -3591,16 +3588,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -3609,16 +3606,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -3627,16 +3624,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -3645,16 +3642,16 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -3663,16 +3660,16 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -3681,16 +3678,16 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -3699,16 +3696,16 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -3717,16 +3714,16 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -3735,16 +3732,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="D14" s="3">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -3753,16 +3750,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="D15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -3771,16 +3768,16 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="D16" s="3">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -3789,16 +3786,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -3807,7 +3804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="D18" s="3">
         <v>17</v>
@@ -3816,7 +3813,7 @@
         <v>136</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -3825,7 +3822,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="D19" s="3">
         <v>18</v>
@@ -3834,7 +3831,7 @@
         <v>136</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -3843,7 +3840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="D20" s="3">
         <v>19</v>
@@ -3852,7 +3849,7 @@
         <v>136</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -3861,7 +3858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="D21" s="3">
         <v>20</v>
@@ -3870,7 +3867,7 @@
         <v>136</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="3">
         <v>4</v>
@@ -3879,7 +3876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="D22" s="3">
         <v>21</v>
@@ -3888,7 +3885,7 @@
         <v>136</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
@@ -3897,7 +3894,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="D23" s="3">
         <v>22</v>
@@ -3906,7 +3903,7 @@
         <v>136</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G23" s="3">
         <v>6</v>
@@ -3915,7 +3912,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="D24" s="3">
         <v>23</v>
@@ -3924,7 +3921,7 @@
         <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G24" s="3">
         <v>7</v>
@@ -3933,7 +3930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="D25" s="3">
         <v>24</v>
@@ -3942,7 +3939,7 @@
         <v>136</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="3">
         <v>8</v>
@@ -3951,7 +3948,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="D26" s="3">
         <v>25</v>
@@ -3960,7 +3957,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G26" s="3">
         <v>9</v>
@@ -3969,7 +3966,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="D27" s="3">
         <v>26</v>
@@ -3978,7 +3975,7 @@
         <v>136</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G27" s="3">
         <v>10</v>
@@ -3987,7 +3984,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="D28" s="3">
         <v>27</v>
@@ -3996,7 +3993,7 @@
         <v>136</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G28" s="3">
         <v>11</v>
@@ -4005,7 +4002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="D29" s="3">
         <v>28</v>
@@ -4014,7 +4011,7 @@
         <v>136</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="3">
         <v>12</v>
@@ -4023,7 +4020,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="D30" s="3">
         <v>29</v>
@@ -4032,7 +4029,7 @@
         <v>136</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="3">
         <v>13</v>
@@ -4041,7 +4038,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="D31" s="3">
         <v>30</v>
@@ -4050,7 +4047,7 @@
         <v>136</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G31" s="3">
         <v>14</v>
@@ -4059,7 +4056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="D32" s="3">
         <v>31</v>
@@ -4068,7 +4065,7 @@
         <v>136</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G32" s="3">
         <v>15</v>
@@ -4077,7 +4074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="D33" s="3">
         <v>32</v>
@@ -4086,7 +4083,7 @@
         <v>136</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G33" s="3">
         <v>16</v>
@@ -4095,7 +4092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="D34" s="3">
         <v>33</v>
@@ -4104,7 +4101,7 @@
         <v>136</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G34" s="3">
         <v>17</v>
@@ -4113,7 +4110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="D35" s="3">
         <v>34</v>
@@ -4122,7 +4119,7 @@
         <v>136</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" s="3">
         <v>18</v>
@@ -4131,7 +4128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="D36" s="3">
         <v>35</v>
@@ -4140,7 +4137,7 @@
         <v>136</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G36" s="3">
         <v>19</v>
@@ -4149,7 +4146,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="D37" s="3">
         <v>36</v>
@@ -4158,7 +4155,7 @@
         <v>136</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G37" s="3">
         <v>20</v>
@@ -4167,7 +4164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="D38" s="3">
         <v>37</v>
@@ -4176,7 +4173,7 @@
         <v>136</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G38" s="3">
         <v>21</v>
@@ -4185,7 +4182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="D39" s="3">
         <v>38</v>
@@ -4194,7 +4191,7 @@
         <v>136</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G39" s="3">
         <v>22</v>
@@ -4203,7 +4200,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="D40" s="3">
         <v>39</v>
@@ -4212,7 +4209,7 @@
         <v>136</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G40" s="3">
         <v>23</v>
@@ -4221,7 +4218,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="D41" s="3">
         <v>40</v>
@@ -4230,7 +4227,7 @@
         <v>136</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G41" s="3">
         <v>24</v>
@@ -4239,35 +4236,34 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="D42" s="3">
         <v>41</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G42" s="3">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="D43" s="3">
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G43" s="3">
         <v>2</v>
@@ -4276,16 +4272,16 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="D44" s="3">
         <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G44" s="3">
         <v>3</v>
@@ -4294,16 +4290,16 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="D45" s="3">
         <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G45" s="3">
         <v>4</v>
@@ -4312,16 +4308,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="D46" s="3">
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G46" s="3">
         <v>5</v>
@@ -4330,35 +4326,34 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="D47" s="3">
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G47" s="3">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="D48" s="3">
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G48" s="3">
         <v>6</v>
@@ -4367,16 +4362,16 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="D49" s="3">
         <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G49" s="3">
         <v>7</v>
@@ -4385,16 +4380,16 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="D50" s="3">
         <v>49</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G50" s="3">
         <v>8</v>
@@ -4403,7 +4398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="D51" s="3">
         <v>50</v>
@@ -4412,17 +4407,16 @@
         <v>162</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G51" s="3">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="D52" s="3">
         <v>51</v>
@@ -4431,7 +4425,7 @@
         <v>162</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G52" s="3">
         <v>2</v>
@@ -4440,7 +4434,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="D53" s="3">
         <v>52</v>
@@ -4449,7 +4443,7 @@
         <v>162</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G53" s="3">
         <v>3</v>
@@ -4458,7 +4452,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="D54" s="3">
         <v>53</v>
@@ -4467,7 +4461,7 @@
         <v>162</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="3">
         <v>4</v>
@@ -4476,7 +4470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="D55" s="3">
         <v>54</v>
@@ -4485,7 +4479,7 @@
         <v>162</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G55" s="3">
         <v>5</v>
@@ -4494,7 +4488,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="D56" s="3">
         <v>55</v>
@@ -4503,7 +4497,7 @@
         <v>162</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G56" s="3">
         <v>6</v>
@@ -4512,7 +4506,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="D57" s="3">
         <v>56</v>
@@ -4521,7 +4515,7 @@
         <v>162</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G57" s="3">
         <v>7</v>
@@ -4530,7 +4524,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="D58" s="3">
         <v>57</v>
@@ -4539,7 +4533,7 @@
         <v>162</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G58" s="3">
         <v>8</v>
@@ -4548,7 +4542,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="D59" s="3">
         <v>58</v>
@@ -4557,7 +4551,7 @@
         <v>162</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G59" s="3">
         <v>9</v>
@@ -4566,7 +4560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="D60" s="3">
         <v>59</v>
@@ -4575,7 +4569,7 @@
         <v>162</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G60" s="3">
         <v>10</v>
@@ -4584,7 +4578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="D61" s="3">
         <v>60</v>
@@ -4593,7 +4587,7 @@
         <v>162</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G61" s="3">
         <v>11</v>
@@ -4602,7 +4596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="D62" s="3">
         <v>61</v>
@@ -4611,7 +4605,7 @@
         <v>162</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G62" s="3">
         <v>12</v>
@@ -4620,7 +4614,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="D63" s="3">
         <v>62</v>
@@ -4629,7 +4623,7 @@
         <v>162</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G63" s="3">
         <v>13</v>
@@ -4638,7 +4632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="D64" s="3">
         <v>63</v>
@@ -4647,7 +4641,7 @@
         <v>162</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G64" s="3">
         <v>14</v>
@@ -4656,7 +4650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="D65" s="3">
         <v>64</v>
@@ -4665,7 +4659,7 @@
         <v>162</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G65" s="3">
         <v>15</v>
@@ -4674,7 +4668,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="D66" s="3">
         <v>65</v>
@@ -4683,7 +4677,7 @@
         <v>162</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G66" s="3">
         <v>16</v>
@@ -4692,7 +4686,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="D67" s="3">
         <v>66</v>
@@ -4701,7 +4695,7 @@
         <v>162</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G67" s="3">
         <v>17</v>
@@ -4710,7 +4704,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="D68" s="3">
         <v>67</v>
@@ -4719,7 +4713,7 @@
         <v>162</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G68" s="3">
         <v>18</v>
@@ -4728,7 +4722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="D69" s="3">
         <v>68</v>
@@ -4737,7 +4731,7 @@
         <v>162</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G69" s="3">
         <v>19</v>
@@ -4746,7 +4740,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="D70" s="3">
         <v>69</v>
@@ -4755,7 +4749,7 @@
         <v>162</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G70" s="3">
         <v>20</v>
@@ -4764,7 +4758,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="D71" s="3">
         <v>70</v>
@@ -4773,7 +4767,7 @@
         <v>162</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G71" s="3">
         <v>21</v>
@@ -4782,7 +4776,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="D72" s="3">
         <v>71</v>
@@ -4791,7 +4785,7 @@
         <v>162</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G72" s="3">
         <v>22</v>
@@ -4800,7 +4794,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="D73" s="3">
         <v>72</v>
@@ -4809,7 +4803,7 @@
         <v>162</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G73" s="3">
         <v>23</v>
@@ -4818,7 +4812,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="D74" s="3">
         <v>73</v>
@@ -4827,7 +4821,7 @@
         <v>162</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G74" s="3">
         <v>24</v>
@@ -4836,7 +4830,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="D75" s="3">
         <v>74</v>
@@ -4845,7 +4839,7 @@
         <v>162</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G75" s="3">
         <v>25</v>
@@ -4854,7 +4848,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="D76" s="3">
         <v>75</v>
@@ -4863,7 +4857,7 @@
         <v>162</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G76" s="3">
         <v>26</v>
@@ -4872,7 +4866,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="D77" s="3">
         <v>76</v>
@@ -4881,7 +4875,7 @@
         <v>162</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G77" s="3">
         <v>27</v>
@@ -4890,7 +4884,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="D78" s="3">
         <v>77</v>
@@ -4899,7 +4893,7 @@
         <v>162</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78" s="3">
         <v>28</v>
@@ -4908,7 +4902,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="D79" s="3">
         <v>78</v>
@@ -4917,7 +4911,7 @@
         <v>162</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G79" s="3">
         <v>29</v>
@@ -4926,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="D80" s="3">
         <v>79</v>
@@ -4935,7 +4929,7 @@
         <v>162</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G80" s="3">
         <v>30</v>
@@ -4944,7 +4938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="D81" s="3">
         <v>80</v>
@@ -4953,7 +4947,7 @@
         <v>162</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G81" s="3">
         <v>31</v>
@@ -4962,7 +4956,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="D82" s="3">
         <v>81</v>
@@ -4971,7 +4965,7 @@
         <v>162</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G82" s="3">
         <v>32</v>
@@ -4980,7 +4974,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="D83" s="3">
         <v>82</v>
@@ -4989,7 +4983,7 @@
         <v>162</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G83" s="3">
         <v>1</v>
@@ -4998,7 +4992,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="D84" s="3">
         <v>83</v>
@@ -5007,7 +5001,7 @@
         <v>162</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G84" s="3">
         <v>2</v>
@@ -5016,7 +5010,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="D85" s="3">
         <v>84</v>
@@ -5025,7 +5019,7 @@
         <v>162</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G85" s="3">
         <v>3</v>
@@ -5034,7 +5028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="D86" s="3">
         <v>85</v>
@@ -5043,7 +5037,7 @@
         <v>188</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5052,7 +5046,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="D87" s="3">
         <v>86</v>
@@ -5061,7 +5055,7 @@
         <v>188</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
@@ -5070,7 +5064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="D88" s="3">
         <v>87</v>
@@ -5079,7 +5073,7 @@
         <v>188</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G88" s="3">
         <v>3</v>
@@ -5088,7 +5082,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="D89" s="3">
         <v>88</v>
@@ -5097,7 +5091,7 @@
         <v>188</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G89" s="3">
         <v>4</v>
@@ -5106,7 +5100,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="D90" s="3">
         <v>89</v>
@@ -5115,7 +5109,7 @@
         <v>188</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G90" s="3">
         <v>5</v>
@@ -5124,7 +5118,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="D91" s="3">
         <v>90</v>
@@ -5133,7 +5127,7 @@
         <v>188</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G91" s="3">
         <v>6</v>
@@ -5142,7 +5136,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="D92" s="3">
         <v>91</v>
@@ -5151,7 +5145,7 @@
         <v>188</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G92" s="3">
         <v>7</v>
@@ -5160,7 +5154,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="D93" s="3">
         <v>92</v>
@@ -5169,7 +5163,7 @@
         <v>188</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G93" s="3">
         <v>8</v>
@@ -5178,7 +5172,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="D94" s="3">
         <v>93</v>
@@ -5187,7 +5181,7 @@
         <v>188</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G94" s="3">
         <v>9</v>
@@ -5196,7 +5190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="D95" s="3">
         <v>94</v>
@@ -5205,7 +5199,7 @@
         <v>188</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G95" s="3">
         <v>10</v>
@@ -5214,7 +5208,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="D96" s="3">
         <v>95</v>
@@ -5223,7 +5217,7 @@
         <v>188</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G96" s="3">
         <v>11</v>
@@ -5232,7 +5226,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="D97" s="3">
         <v>96</v>
@@ -5241,7 +5235,7 @@
         <v>188</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G97" s="3">
         <v>12</v>
@@ -5250,7 +5244,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="D98" s="3">
         <v>97</v>
@@ -5259,7 +5253,7 @@
         <v>188</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G98" s="3">
         <v>13</v>
@@ -5268,7 +5262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="D99" s="3">
         <v>98</v>
@@ -5277,7 +5271,7 @@
         <v>188</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G99" s="3">
         <v>14</v>
@@ -5286,7 +5280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="D100" s="3">
         <v>99</v>
@@ -5295,7 +5289,7 @@
         <v>188</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G100" s="3">
         <v>15</v>
@@ -5304,7 +5298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="D101" s="3">
         <v>100</v>
@@ -5313,7 +5307,7 @@
         <v>188</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G101" s="3">
         <v>16</v>
@@ -5322,7 +5316,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="D102" s="3">
         <v>101</v>
@@ -5331,7 +5325,7 @@
         <v>188</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G102" s="3">
         <v>17</v>
@@ -5340,7 +5334,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="D103" s="3">
         <v>102</v>
@@ -5349,7 +5343,7 @@
         <v>188</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G103" s="3">
         <v>18</v>
@@ -5358,7 +5352,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="D104" s="3">
         <v>103</v>
@@ -5367,7 +5361,7 @@
         <v>188</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G104" s="3">
         <v>19</v>
@@ -5376,7 +5370,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="D105" s="3">
         <v>104</v>
@@ -5385,7 +5379,7 @@
         <v>188</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G105" s="3">
         <v>20</v>
@@ -5394,7 +5388,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="D106" s="3">
         <v>105</v>
@@ -5403,7 +5397,7 @@
         <v>188</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G106" s="3">
         <v>21</v>
@@ -5412,7 +5406,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="D107" s="3">
         <v>106</v>
@@ -5421,7 +5415,7 @@
         <v>188</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G107" s="3">
         <v>22</v>
@@ -5430,7 +5424,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="D108" s="3">
         <v>107</v>
@@ -5439,7 +5433,7 @@
         <v>188</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G108" s="3">
         <v>23</v>
@@ -5448,7 +5442,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="D109" s="3">
         <v>108</v>
@@ -5457,7 +5451,7 @@
         <v>188</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G109" s="3">
         <v>24</v>
@@ -5466,7 +5460,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="D110" s="3">
         <v>109</v>
@@ -5475,7 +5469,7 @@
         <v>188</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G110" s="3">
         <v>25</v>
@@ -5484,7 +5478,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="D111" s="3">
         <v>110</v>
@@ -5493,7 +5487,7 @@
         <v>188</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G111" s="3">
         <v>26</v>
